--- a/data/trans_orig/P70D_R_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70D_R_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>18839</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11686</v>
+        <v>11689</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28757</v>
+        <v>28803</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05184584727641955</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03215981602915714</v>
+        <v>0.03216670616752067</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07913806956170517</v>
+        <v>0.07926629514720555</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -762,19 +762,19 @@
         <v>18521</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11758</v>
+        <v>11714</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28462</v>
+        <v>28500</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06736758417633613</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04277015122511208</v>
+        <v>0.04260716392721878</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.103526389041084</v>
+        <v>0.1036661912797815</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -783,19 +783,19 @@
         <v>37360</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27438</v>
+        <v>27244</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50584</v>
+        <v>52234</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05853127024210907</v>
+        <v>0.05853127024210906</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04298588641777557</v>
+        <v>0.04268215932054697</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07924883117789794</v>
+        <v>0.08183337195282017</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>344535</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>334617</v>
+        <v>334571</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>351688</v>
+        <v>351685</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9481541527235804</v>
+        <v>0.9481541527235806</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9208619304382946</v>
+        <v>0.9207337048527945</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9678401839708428</v>
+        <v>0.9678332938324794</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>380</v>
@@ -833,19 +833,19 @@
         <v>256402</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>246461</v>
+        <v>246423</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>263165</v>
+        <v>263209</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9326324158236637</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8964736109589162</v>
+        <v>0.8963338087202186</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9572298487748879</v>
+        <v>0.957392836072781</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>696</v>
@@ -854,19 +854,19 @@
         <v>600937</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>587713</v>
+        <v>586063</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>610859</v>
+        <v>611053</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9414687297578911</v>
+        <v>0.9414687297578909</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9207511688221022</v>
+        <v>0.9181666280471797</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9570141135822245</v>
+        <v>0.9573178406794528</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>22009</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13835</v>
+        <v>14475</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32189</v>
+        <v>33467</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03542157079637391</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02226677745094759</v>
+        <v>0.02329560757501476</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05180433649241761</v>
+        <v>0.05386116138567339</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -979,19 +979,19 @@
         <v>27631</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19613</v>
+        <v>19775</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37656</v>
+        <v>37413</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0622167631780452</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04416382187528988</v>
+        <v>0.04452861613457079</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08478987366248927</v>
+        <v>0.08424270282223757</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -1000,19 +1000,19 @@
         <v>49640</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38656</v>
+        <v>38381</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64105</v>
+        <v>63440</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04659038677647147</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03628154063660664</v>
+        <v>0.03602325376612348</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0601670209483679</v>
+        <v>0.05954307850763974</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>599341</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>589161</v>
+        <v>587883</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>607515</v>
+        <v>606875</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9645784292036261</v>
+        <v>0.9645784292036259</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9481956635075821</v>
+        <v>0.9461388386143266</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9777332225490525</v>
+        <v>0.9767043924249851</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>550</v>
@@ -1050,19 +1050,19 @@
         <v>416474</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>406449</v>
+        <v>406692</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>424492</v>
+        <v>424330</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9377832368219549</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.915210126337511</v>
+        <v>0.9157572971777623</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9558361781247102</v>
+        <v>0.9554713838654293</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1048</v>
@@ -1071,19 +1071,19 @@
         <v>1015815</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1001350</v>
+        <v>1002015</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1026799</v>
+        <v>1027074</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9534096132235287</v>
+        <v>0.9534096132235286</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.939832979051632</v>
+        <v>0.9404569214923602</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9637184593633934</v>
+        <v>0.9639767462338765</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>10919</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5465</v>
+        <v>5079</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19664</v>
+        <v>18705</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02622228182420601</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01312450051212131</v>
+        <v>0.0121962858403335</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04722199287713374</v>
+        <v>0.04491983279113939</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1196,19 +1196,19 @@
         <v>9340</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5089</v>
+        <v>5026</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16608</v>
+        <v>15570</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02795073215059889</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01522921523831467</v>
+        <v>0.0150411642408973</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04970171348357885</v>
+        <v>0.04659511050877709</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1217,19 +1217,19 @@
         <v>20259</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13097</v>
+        <v>12949</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30653</v>
+        <v>29583</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02699179137209977</v>
+        <v>0.02699179137209976</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01744917121538175</v>
+        <v>0.01725192668572829</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04083960162009564</v>
+        <v>0.03941346093868112</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>405499</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>396754</v>
+        <v>397713</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>410953</v>
+        <v>411339</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9737777181757941</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9527780071228665</v>
+        <v>0.9550801672088607</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9868754994878789</v>
+        <v>0.9878037141596666</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>404</v>
@@ -1267,19 +1267,19 @@
         <v>324818</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>317550</v>
+        <v>318588</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>329069</v>
+        <v>329132</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9720492678494012</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9502982865164212</v>
+        <v>0.9534048894912219</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9847707847616854</v>
+        <v>0.9849588357591025</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>719</v>
@@ -1288,19 +1288,19 @@
         <v>730317</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>719923</v>
+        <v>720993</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>737479</v>
+        <v>737627</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9730082086279005</v>
+        <v>0.9730082086279002</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9591603983799044</v>
+        <v>0.9605865390613187</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9825508287846184</v>
+        <v>0.9827480733142716</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>29118</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18885</v>
+        <v>19817</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42749</v>
+        <v>42721</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05704894110632804</v>
+        <v>0.05704894110632803</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03699964907089494</v>
+        <v>0.03882507079260902</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08375351226025951</v>
+        <v>0.08369887075676855</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1413,19 +1413,19 @@
         <v>31589</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23484</v>
+        <v>23659</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43188</v>
+        <v>43057</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07139350961270255</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05307651698240796</v>
+        <v>0.05347198000010011</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09760889724505308</v>
+        <v>0.09731267827542427</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -1434,19 +1434,19 @@
         <v>60707</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46165</v>
+        <v>48237</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76472</v>
+        <v>78165</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06370976583006964</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04844824512453538</v>
+        <v>0.05062282113885219</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08025448440309488</v>
+        <v>0.08203131531459554</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>481291</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>467660</v>
+        <v>467688</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>491524</v>
+        <v>490592</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9429510588936721</v>
+        <v>0.9429510588936719</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9162464877397404</v>
+        <v>0.9163011292432316</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9630003509291051</v>
+        <v>0.9611749292073911</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>549</v>
@@ -1484,19 +1484,19 @@
         <v>410870</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>399271</v>
+        <v>399402</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>418975</v>
+        <v>418800</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9286064903872975</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9023911027549472</v>
+        <v>0.9026873217245757</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9469234830175921</v>
+        <v>0.9465280199998999</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>991</v>
@@ -1505,19 +1505,19 @@
         <v>892161</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>876396</v>
+        <v>874703</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>906703</v>
+        <v>904631</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9362902341699304</v>
+        <v>0.9362902341699303</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.919745515596905</v>
+        <v>0.9179686846854044</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9515517548754645</v>
+        <v>0.9493771788611473</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>80886</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63347</v>
+        <v>64036</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>101948</v>
+        <v>100548</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0423145061577257</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03313889191046826</v>
+        <v>0.03349958850515361</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0533326645309885</v>
+        <v>0.05260029591415134</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>117</v>
@@ -1630,19 +1630,19 @@
         <v>87080</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73009</v>
+        <v>72312</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>104599</v>
+        <v>106089</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0582225973795733</v>
+        <v>0.05822259737957329</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04881438343421735</v>
+        <v>0.04834811695000268</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06993599030348424</v>
+        <v>0.07093186289841805</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>194</v>
@@ -1651,19 +1651,19 @@
         <v>167967</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>145909</v>
+        <v>146019</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>193702</v>
+        <v>198601</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04929762596082604</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04282369908875472</v>
+        <v>0.04285608396308416</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05685089968864356</v>
+        <v>0.05828883222682463</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>1830665</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1809603</v>
+        <v>1811003</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1848204</v>
+        <v>1847515</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9576854938422743</v>
+        <v>0.9576854938422742</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9466673354690114</v>
+        <v>0.9473997040858487</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9668611080895319</v>
+        <v>0.9665004114948467</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1883</v>
@@ -1701,19 +1701,19 @@
         <v>1408565</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1391046</v>
+        <v>1389556</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1422636</v>
+        <v>1423333</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9417774026204268</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9300640096965155</v>
+        <v>0.929068137101582</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9511856165657823</v>
+        <v>0.951651883049997</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3454</v>
@@ -1722,19 +1722,19 @@
         <v>3239229</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3213494</v>
+        <v>3208595</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3261287</v>
+        <v>3261177</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9507023740391739</v>
+        <v>0.9507023740391738</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9431491003113566</v>
+        <v>0.9417111677731753</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9571763009112457</v>
+        <v>0.9571439160369161</v>
       </c>
     </row>
     <row r="18">
